--- a/Data/TestPlans/Config1.xlsx
+++ b/Data/TestPlans/Config1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\TestPlans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C05E9F4-DB79-4318-9822-E6769D475990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99158B9C-9418-4E37-B627-71DC01CDDB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3216" yWindow="888" windowWidth="37188" windowHeight="15300" xr2:uid="{6CD53E19-C66B-4CA9-B9E6-15E69A39AF95}"/>
+    <workbookView xWindow="11676" yWindow="1896" windowWidth="21372" windowHeight="13512" xr2:uid="{6CD53E19-C66B-4CA9-B9E6-15E69A39AF95}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
-  <si>
-    <t>Test</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>N</t>
   </si>
@@ -70,6 +67,33 @@
   </si>
   <si>
     <t>003_Profil_001_Allgemein_CheckingDefaults</t>
+  </si>
+  <si>
+    <t>Flow</t>
+  </si>
+  <si>
+    <t>Test case</t>
+  </si>
+  <si>
+    <t>floLogin</t>
+  </si>
+  <si>
+    <t>=&gt; Ausführung eines Testplanes noch nicht implementiert - wird via listener die Testcases on the fly erstellen und dann ausführen</t>
+  </si>
+  <si>
+    <t>002_Profil</t>
+  </si>
+  <si>
+    <t>003_Abwesenheiten</t>
+  </si>
+  <si>
+    <t>floProfil</t>
+  </si>
+  <si>
+    <t>003_Profil_002_Profil_Datenaenderung</t>
+  </si>
+  <si>
+    <t>003_Profil_003_Abwesenheiten_Normalfall_Anlage</t>
   </si>
 </sst>
 </file>
@@ -115,7 +139,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -430,92 +454,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1239337A-62D4-4F5C-ADC9-87BFDFBA8030}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="2"/>
-    <col min="2" max="2" width="17.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="47.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.77734375" customWidth="1"/>
+    <col min="5" max="5" width="47.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>